--- a/medicine/Enfance/Romain_Simon/Romain_Simon.xlsx
+++ b/medicine/Enfance/Romain_Simon/Romain_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romain Simon, né le 5 janvier 1916 à Malzéville et mort le 4 avril 2007 à Salon-de-Provence[1], est un auteur et illustrateur français de livres pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romain Simon, né le 5 janvier 1916 à Malzéville et mort le 4 avril 2007 à Salon-de-Provence, est un auteur et illustrateur français de livres pour la jeunesse.
 Auteur et illustrateur surtout animalier, il a écrit ou mis en images, de 1937 à 2005, plus de 280 livres ou albums, aux couvertures souvent renouvelées au gré des rééditions. Il est notamment connu pour ses illustrations dans la collection du Père Castor et pour la série Picotin.
 </t>
         </is>
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 5 janvier 1916 à Malzéville, ville lorraine de la région nancéienne, Romain Simon est d’origine française par son père et russe par sa mère. Son père, Pol Simon, né à Commercy en 1880, a fondé avec son épouse Elisabeth Gontcharov, petite nièce de l'écrivain russe Ivan Gontcharov connu pour son ouvrage Oblomov (1859), œuvre symbolique de la nonchalance slave, une famille exceptionnelle d’artistes, de journalistes ou d’écrivains lorrains. Quatre fils naissent de ce mariage : l’écrivain et grand reporter Sacha Simon (1908-1988), l’acteur, auteur de romans scouts et chansonnier Louis Simon (1911-1988), l’écrivain et traducteur Boris Simon-Gontcharov (1913-1972), et Romain Simon, né en 1916. Pol Simon n’aura pas le temps d’assurer l’éducation de ses quatre enfants puisqu’il meurt très tôt, en 1922, à l’âge de 42 ans, et les enfants sont, dès cette date, adoptés par La Nation.
 Romain Simon fait partie d’un groupe (le GEC), créé par le père jésuite nancéien Pierre Brandicourt (né en 1899), lequel organisera après la Seconde guerre mondiale des spectacles de marionnettes.
 Il a été l’élève du grand maître cartonnier et tapissier Jean Picart Le Doux (1902-1982) et du peintre figuratif Maurice Mazo (1901-1989), très attaché à la perfection technique et formelle et à la représentation. Ces deux maîtres ont renforcé son sens de la composition, son goût très sûr pour les couleurs et lui ont permis de développer son sens naturel de la fantaisie et du bonheur de vivre.
-Il participe, avec son frère Louis, à la troupe des Comédiens routiers dirigée par  Léon Chancerel (1886-1965), disciple de Jacques Copeau. De 1929 à 1939, ces comédiens animent le Théâtre de l’enfance, fondé sur l’improvisation et pour lequel Léon Chancerel crée le personnage de l’Oncle Sébastien. Romain illustre des Aventures de Ludulu publiées dès 1936 comme Ludulu Messager et Pouique le glouton. "Comédien inventif, se révèlera de surcroît excellent dessinateur et sculpteur de masques"[2], il réalise aussi les décors de ce théâtre pour la jeunesse.
+Il participe, avec son frère Louis, à la troupe des Comédiens routiers dirigée par  Léon Chancerel (1886-1965), disciple de Jacques Copeau. De 1929 à 1939, ces comédiens animent le Théâtre de l’enfance, fondé sur l’improvisation et pour lequel Léon Chancerel crée le personnage de l’Oncle Sébastien. Romain illustre des Aventures de Ludulu publiées dès 1936 comme Ludulu Messager et Pouique le glouton. "Comédien inventif, se révèlera de surcroît excellent dessinateur et sculpteur de masques", il réalise aussi les décors de ce théâtre pour la jeunesse.
 En 1938, pour l’Opéra de Paris et L’Enfant et les sortilèges de Maurice Ravel, l’artiste réalise les masques.  
 En 1938-39, Romain Simon quitte l’équipe théâtrale pour le service militaire. Canonnier du 155e régiment sur un ouvrage d’artillerie de la ligne Maginot, le Simserhof, en Moselle. Il réalise une peinture murale représentant Blanche-Neige et les sept nains d’après le dessin animé de Walt Disney, toujours visible dans le foyer-bar du soldat. Romain est fait prisonnier et après des années de captivité, il dessine pour des journaux. Il se marie en 1943 à Florac, en Lozère. À la Libération, il partage des débuts difficiles dans le métier d’illustrateur avec son ami Jacques Faizant de deux ans, son cadet.
 En 1951, il publie, en bande dessinée muette, dans le quotidien L’Espoir de Lille et illustre en 1952 de courts récits dans les hebdomadaires La Semaine de Suzette et Bernadette.
-Romain Simon rencontre Paul Faucher (1898-1967)[3], alias Paul François, « Le Père Castor », inventeur de l’album moderne au début des années 30, très attaché à l’éducation moderne, vers 1947-1948. Ces contacts fructueux débouchent sur la publication, dès 1949, de plusieurs « Albums du Père Castor », (la plupart des titres publiés cette année-là). Dans ces albums, souvent didactiques, s’affirme ce qu’Olivier Piffaulft a pu appeler « le réalisme pédagogique, non exclusif de poésie »[4].
+Romain Simon rencontre Paul Faucher (1898-1967), alias Paul François, « Le Père Castor », inventeur de l’album moderne au début des années 30, très attaché à l’éducation moderne, vers 1947-1948. Ces contacts fructueux débouchent sur la publication, dès 1949, de plusieurs « Albums du Père Castor », (la plupart des titres publiés cette année-là). Dans ces albums, souvent didactiques, s’affirme ce qu’Olivier Piffaulft a pu appeler « le réalisme pédagogique, non exclusif de poésie ».
 </t>
         </is>
       </c>
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums du Père Castor
-1949 : Poulerousse, texte de Lida Durdikova no 172
+          <t>Albums du Père Castor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1949 : Poulerousse, texte de Lida Durdikova no 172
 1949 : Le Pèlerinage de fourmiguette, texte de Jean-Michel Guilcher , Père Castor no 167
 1949 : Boucle d'or, texte d'André Telier (Collectif d’auteurs du Père Castor) n° 170
 1949 : La Chèvre et les biquets, Texte A. Telier (Collectif d’auteurs du Père Castor), Album. du Père Castor, et 1951 (no 171)
@@ -580,12 +599,46 @@
 1983 : Le Chat boude Texte et illustrations de Romain Simon Les Petits Castors, Flammarion.
 1983 : Toum-Toum le manchot empereur de Laurence Delaby « Roman des bêtes » R. Album du Père Castor.
 1985 : Les Cinq Oursons Texte et illustrations de Romain Simon Album du Père Castor
-2000 : Le Jamais content ! de Vassilissa « Les Mini Castor ». R. 2001.
-Éditions Hachette
-Collection des grands romanciers
+2000 : Le Jamais content ! de Vassilissa « Les Mini Castor ». R. 2001.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éditions Hachette</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Collection des grands romanciers
 1950 : Au pays des cinq rivières de George Cory Franklin
 1953 : Le Lion et la Sorcière blanche de C.S. Lewis
-1953 : Prince Caspian, le retour à Narnia , C. S. Lewis , traduit par Émile R. Blanchet , collection : Idéal-Bibliothèque, Hachette, 187 p.[1] (1re édition en France) 
+1953 : Prince Caspian, le retour à Narnia , C. S. Lewis , traduit par Émile R. Blanchet , collection : Idéal-Bibliothèque, Hachette, 187 p. (1re édition en France) 
 1953 : Fables imagées de La Fontaine « Les Albums roses ». (repris sous le titre La Fontaine Fables)
 1953 : Fables de La Fontaine  « Grands albums Hachette ».
 1953 : Fables de La Fontaine : La Tortue et les deux canards « Les Albums roses »
@@ -653,11 +706,45 @@
 1955 : Alerte aux cimes  de Marcelle Vérité,  Coll. « Des grands romanciers », Hachette, Rééd. 1957.    
 1970 : Les Animaux et les saisons de Marcelle Vérité  « Les Beaux livres Hachette »
 1977 : Hervé au château de Cécile Aubry, coll. « Bibliothèque verte ».
-2004 : Mes plus belles histoires d’animaux de Jean-François Deniau et autres auteurs, Hachette Jeunesse, R. 2005.
-Éditions Delagrave 
-Bibliothèque des belles œuvres
+2004 : Mes plus belles histoires d’animaux de Jean-François Deniau et autres auteurs, Hachette Jeunesse, R. 2005.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éditions Delagrave </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bibliothèque des belles œuvres
 1961 : Histoires de bêtes de Louis Pergaud  159 p. Rééd. en 1966. Ill. en deux tons et couleurs.
-1966 : Nouvelles histoires de bêtes,, "Bibliothèque des belles œuvres", Librairie Delagrave, 159 p.
+1966 : Nouvelles histoires de bêtes "Bibliothèque des belles œuvres", Librairie Delagrave, 159 p.
 Collection "Bouton d’or" 
 1963 : Contes des brûleurs de loups de Paul Berret.
 1963 : La Cage aux singes d’Anne Freeling, texte français d’Alain Valière, 121 p.
@@ -683,9 +770,43 @@
 1974 : Sama, prince des éléphants, de René Guillot
 1975 : Pompon à la ville : 1er livre de lectures courantes de Paul-Jacques Bonzon. R. 1990
 1975 : Le Cirque Zigoto : Livre de lectures suivies Cours élémentaire de Paul-Jacques Bonzon. Rééditions en 1977, 1979 et 1982.
-1976 : Yani : livre de lectures suivies de Paul-Jacques Bonzon
-Éditions G. P.
-Collection « Rouge et bleue »
+1976 : Yani : livre de lectures suivies de Paul-Jacques Bonzon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éditions G. P.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Collection « Rouge et bleue »
 1955 : Bel-Œil Histoire d’un petit âne qui avait les oreilles trop courtes, de Marguerite Clément. Collection « Rouge et bleue »
 1971 : Picky printemps, Jean-Côme Noguès, 35 p., Collection « Rouge et bleue ».
 1974 : Pfutt, le petit lama, Eve Dessarre, Collection « Rouge et bleue ».
@@ -699,9 +820,43 @@
 1975 : Suzy et le mystère de la chaumière de Gretha Stevns.
 1976 : Suzy et la fille du pêcheur de Gretha Stevns
 1977 : Suzy et la petite inconnue de Gretha Stevns
-1980 : L’Étrange Petit Poney de Rumer Godden
-Éditions BIAS
-Collection Jeunes années
+1980 : L’Étrange Petit Poney de Rumer Godden</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Éditions BIAS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Collection Jeunes années
 1955 :Histoires du gentil lutin de Jehanne Roche (Réédition de Contes du Lutin,1955).
 1959 : Fables de mon jardin Georges Duhamel, 24 p. (Ouvrage réédité sous le titre Contes de mon jardin, 1963).
 1971 : Les Trois Petits Cochons de J. P. Bayard, Rééd. 1973.
@@ -728,9 +883,43 @@
 1982 : Frédéric et Nathalie au bord de l’étang Texte et illustrations de Romain Simon
 1982 : Frédéric et Nathalie dans la prairie. Texte et illustrations de Romain Simon
 1982 : Frédéric et Nathalie dans la forêt. Texte et illustrations de Romain Simon
-1983 : En Camargue. Texte et illustrations de Romain Simon
-Éditions Gautier-Languereau
-Collection « Les Albums merveilleux » 
+1983 : En Camargue. Texte et illustrations de Romain Simon</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Éditions Gautier-Languereau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Collection « Les Albums merveilleux » 
 1961 : Titou dans la forêt de Henriette Robitaillie « Les Albums merveilleux » et 1962 (avec un puzzle).
 1963 : Cane jolie « Les Albums merveilleux » de Marcelle Château (1ère édition : « Les Albums puzzles », 1963.) 
 1964 : Le Petit ours désobéissant « Les Albums merveilleux » (Autre édition : « Les Albums puzzles », 20 p., 1964).
@@ -768,9 +957,43 @@
 1974 : 15 aventures d’animaux familiers de G. Durrell, A. Daudet… Anthologie de Marcelle Vérité.
 Hors collection
 1977 : Mes petits amis de la forêt : recueil de quatre histoires de Marcelle Vérité,  regroupant Fanou le petit faon (autrice non créditée), Flamme des collines,Jeannot des Garennes et Gris le loup). Réédition : 1979.
-1987 : Le Livre de la Jungle de Rudyard Kipling, traduction de Marcelle Vérité (version abrégée). Réédition : 1991.
-Éditions Casterman
-Collection Farandole    
+1987 : Le Livre de la Jungle de Rudyard Kipling, traduction de Marcelle Vérité (version abrégée). Réédition : 1991.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Éditions Casterman</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Collection Farandole    
 1962 : Poulette des champs de Marcelle Vérité, 19 p., R. 1973.
 1962 : Le Voyage des éléphants de Marcelle Vérité. Rééd. : coll. « Ballon rouge ».
 1963 : Mamou marmot de Marcelle Vérité 19 p., Rééd. Coll. « Ballon rouge », 1972.
@@ -779,9 +1002,43 @@
 1959 : Contes de mes bêtes de Louise Bellocq.
 1962 : Contes de mes bêtes au vent de Louise Bellocq,  59 p., R. 1968.
 1962 : Contes de mes bêtes sous la lune de Louise Bellocq  59 p., Rééd. 1964.
-1968 : Contes de mes bêtes à l’aventure de Louise Bellocq.
-Autres collections chez d'autres éditeurs
-1961 : Il était une fois… Une Rivière de Marcelle Vérité.
+1968 : Contes de mes bêtes à l’aventure de Louise Bellocq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres collections chez d'autres éditeurs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1961 : Il était une fois… Une Rivière de Marcelle Vérité.
 1961 : Il était une fois…La Forêt et ses bêtes de Marcelle Vérité et M. Etchecobar 92 p. Rééd. Coll. « Marcelle Vérité ».
 1961 : Il était une fois…Une rivière de Marcelle Vérité  Rééd. 1967 et 1970.    
 1962 : Animaux des montagnes de Marcelle Vérité .
@@ -808,9 +1065,43 @@
 1987 : Maisons et Métiers des animaux, de Marcelle Vérité Nouvelle édition, nouveau format, nouvelles illustrations toutes en couleurs.76 p.
 1989 : Le Voyage de Blanche-Laine    
 1989 : Croc-Blanc de Jack London, traduit de l’anglais et adapté par Catherine Barre      
-1993 : Rudyard Kipling : Histoires comme ça « Album Romain Simon », de Rudyard Kipling,  80 p.
-Éditions Nathan
-1958 : Contes et Légendes indiens de Mme Foure-Selter, Collection « Contes et légendes »
+1993 : Rudyard Kipling : Histoires comme ça « Album Romain Simon », de Rudyard Kipling,  80 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Romain_Simon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romain_Simon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Éditions Nathan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1958 : Contes et Légendes indiens de Mme Foure-Selter, Collection « Contes et légendes »
 Albums Nathan, appartenant souvent à la collection « Coccinelle », aux éditions F. Nathan, Texte et images de Romain Simon
 1971 : La Petite souris à la campagne
 1971 : Le Petit Renard avec les animaux des bois
